--- a/src/analysis_examples/circadb/results_jtk/cosinor_10410641_lrrc14b_.xlsx
+++ b/src/analysis_examples/circadb/results_jtk/cosinor_10410641_lrrc14b_.xlsx
@@ -589,14 +589,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.23474750240413317, 0.3719388930909982]</t>
+          <t>[0.23542967809655968, 0.3712567173985717]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>8.225633507663588e-09</v>
+        <v>6.938013052959491e-09</v>
       </c>
       <c r="N2" t="n">
-        <v>8.225633507663588e-09</v>
+        <v>6.938013052959491e-09</v>
       </c>
       <c r="O2" t="n">
         <v>0.4339737599553466</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.3813710603610302, 0.454729421451026]</t>
+          <t>[0.38138722787582435, 0.45471325393623185]</t>
         </is>
       </c>
       <c r="U2" t="n">
